--- a/Documents/BOM.xlsx
+++ b/Documents/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vovmo\Documents\GitHub\6-Axis-Robotarm\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A8D31CB-F45D-4219-BB47-732E8F3A3218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBA2992-55FC-47C4-870C-13A05681EC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -469,19 +468,19 @@
     <v>Finance</v>
     <v>4</v>
     <v>0.96609999999999996</v>
-    <v>0.92</v>
-    <v>2.9999999999999997E-4</v>
-    <v>3.211E-4</v>
+    <v>0.91749999999999998</v>
+    <v>-2.7000000000000001E-3</v>
+    <v>-2.892E-3</v>
     <v>CHF</v>
     <v>EUR</v>
-    <v>0.93569999999999998</v>
+    <v>0.93440000000000001</v>
     <v>Currency Pair</v>
-    <v>45933.460439814815</v>
-    <v>0.93420000000000003</v>
+    <v>46009.766851851855</v>
+    <v>0.93110000000000004</v>
     <v>Euro/Swiss Franc FX Cross Rate</v>
-    <v>0.93430000000000002</v>
-    <v>0.93430000000000002</v>
-    <v>0.93459999999999999</v>
+    <v>0.93369999999999997</v>
+    <v>0.93369999999999997</v>
+    <v>0.93100000000000005</v>
     <v>EURCHF</v>
     <v>EUR/CHF</v>
   </rv>
@@ -502,18 +501,18 @@
     <v>4</v>
     <v>0.92</v>
     <v>0.78269999999999995</v>
-    <v>-1.1999999999999999E-3</v>
-    <v>-1.505E-3</v>
+    <v>-8.9999999999999998E-4</v>
+    <v>-1.132E-3</v>
     <v>CHF</v>
     <v>USD</v>
-    <v>0.79810000000000003</v>
+    <v>0.79649999999999999</v>
     <v>Currency Pair</v>
-    <v>45933.460439814815</v>
-    <v>0.79579999999999995</v>
+    <v>46009.766851851855</v>
+    <v>0.79300000000000004</v>
     <v>US Dollar/Swiss Franc FX Spot Rate</v>
-    <v>0.79800000000000004</v>
-    <v>0.79759999999999998</v>
-    <v>0.7964</v>
+    <v>0.79490000000000005</v>
+    <v>0.7954</v>
+    <v>0.79449999999999998</v>
     <v>USDCHF</v>
     <v>USD/CHF</v>
   </rv>
